--- a/data/clean/historical_clean_data.xlsx
+++ b/data/clean/historical_clean_data.xlsx
@@ -3409,7 +3409,7 @@
         <v>1</v>
       </c>
       <c r="F131" t="n">
-        <v>82</v>
+        <v>142</v>
       </c>
       <c r="G131" t="n">
         <v>0</v>
@@ -13161,7 +13161,7 @@
         <v>1</v>
       </c>
       <c r="F555" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="G555" t="n">
         <v>6</v>
@@ -24330,7 +24330,7 @@
         <v>2020</v>
       </c>
       <c r="C1041" s="1" t="n">
-        <v>43843</v>
+        <v>43857</v>
       </c>
       <c r="D1041" t="s">
         <v>8</v>
@@ -24353,7 +24353,7 @@
         <v>2020</v>
       </c>
       <c r="C1042" s="1" t="n">
-        <v>43857</v>
+        <v>43864</v>
       </c>
       <c r="D1042" t="s">
         <v>8</v>
@@ -24376,7 +24376,7 @@
         <v>2020</v>
       </c>
       <c r="C1043" s="1" t="n">
-        <v>43864</v>
+        <v>43878</v>
       </c>
       <c r="D1043" t="s">
         <v>8</v>
@@ -24399,7 +24399,7 @@
         <v>2020</v>
       </c>
       <c r="C1044" s="1" t="n">
-        <v>43878</v>
+        <v>43892</v>
       </c>
       <c r="D1044" t="s">
         <v>8</v>
@@ -24422,7 +24422,7 @@
         <v>2020</v>
       </c>
       <c r="C1045" s="1" t="n">
-        <v>43892</v>
+        <v>43899</v>
       </c>
       <c r="D1045" t="s">
         <v>8</v>
@@ -24445,7 +24445,7 @@
         <v>2020</v>
       </c>
       <c r="C1046" s="1" t="n">
-        <v>43899</v>
+        <v>43906</v>
       </c>
       <c r="D1046" t="s">
         <v>8</v>
@@ -24468,7 +24468,7 @@
         <v>2020</v>
       </c>
       <c r="C1047" s="1" t="n">
-        <v>43906</v>
+        <v>43913</v>
       </c>
       <c r="D1047" t="s">
         <v>8</v>
@@ -24491,7 +24491,7 @@
         <v>2020</v>
       </c>
       <c r="C1048" s="1" t="n">
-        <v>43913</v>
+        <v>43941</v>
       </c>
       <c r="D1048" t="s">
         <v>8</v>
@@ -24514,7 +24514,7 @@
         <v>2020</v>
       </c>
       <c r="C1049" s="1" t="n">
-        <v>43934</v>
+        <v>43955</v>
       </c>
       <c r="D1049" t="s">
         <v>8</v>
@@ -24537,7 +24537,7 @@
         <v>2020</v>
       </c>
       <c r="C1050" s="1" t="n">
-        <v>43941</v>
+        <v>43976</v>
       </c>
       <c r="D1050" t="s">
         <v>8</v>
@@ -24560,7 +24560,7 @@
         <v>2020</v>
       </c>
       <c r="C1051" s="1" t="n">
-        <v>43955</v>
+        <v>43983</v>
       </c>
       <c r="D1051" t="s">
         <v>8</v>
@@ -24583,7 +24583,7 @@
         <v>2020</v>
       </c>
       <c r="C1052" s="1" t="n">
-        <v>43976</v>
+        <v>43990</v>
       </c>
       <c r="D1052" t="s">
         <v>8</v>
@@ -24606,7 +24606,7 @@
         <v>2020</v>
       </c>
       <c r="C1053" s="1" t="n">
-        <v>43983</v>
+        <v>43997</v>
       </c>
       <c r="D1053" t="s">
         <v>8</v>
@@ -24629,7 +24629,7 @@
         <v>2020</v>
       </c>
       <c r="C1054" s="1" t="n">
-        <v>43990</v>
+        <v>44004</v>
       </c>
       <c r="D1054" t="s">
         <v>8</v>
@@ -24652,7 +24652,7 @@
         <v>2020</v>
       </c>
       <c r="C1055" s="1" t="n">
-        <v>43997</v>
+        <v>44011</v>
       </c>
       <c r="D1055" t="s">
         <v>8</v>
@@ -24675,7 +24675,7 @@
         <v>2020</v>
       </c>
       <c r="C1056" s="1" t="n">
-        <v>44004</v>
+        <v>44018</v>
       </c>
       <c r="D1056" t="s">
         <v>8</v>
@@ -24698,7 +24698,7 @@
         <v>2020</v>
       </c>
       <c r="C1057" s="1" t="n">
-        <v>44011</v>
+        <v>44025</v>
       </c>
       <c r="D1057" t="s">
         <v>8</v>
@@ -24707,7 +24707,7 @@
         <v>1</v>
       </c>
       <c r="F1057" t="n">
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="G1057" t="n">
         <v>0</v>
@@ -24721,7 +24721,7 @@
         <v>2020</v>
       </c>
       <c r="C1058" s="1" t="n">
-        <v>44018</v>
+        <v>44032</v>
       </c>
       <c r="D1058" t="s">
         <v>8</v>
@@ -24730,7 +24730,7 @@
         <v>1</v>
       </c>
       <c r="F1058" t="n">
-        <v>0</v>
+        <v>516</v>
       </c>
       <c r="G1058" t="n">
         <v>0</v>
@@ -24744,7 +24744,7 @@
         <v>2020</v>
       </c>
       <c r="C1059" s="1" t="n">
-        <v>44025</v>
+        <v>44039</v>
       </c>
       <c r="D1059" t="s">
         <v>8</v>
@@ -24753,7 +24753,7 @@
         <v>1</v>
       </c>
       <c r="F1059" t="n">
-        <v>421</v>
+        <v>1181</v>
       </c>
       <c r="G1059" t="n">
         <v>0</v>
@@ -24767,7 +24767,7 @@
         <v>2020</v>
       </c>
       <c r="C1060" s="1" t="n">
-        <v>44032</v>
+        <v>44046</v>
       </c>
       <c r="D1060" t="s">
         <v>8</v>
@@ -24776,7 +24776,7 @@
         <v>1</v>
       </c>
       <c r="F1060" t="n">
-        <v>223</v>
+        <v>303</v>
       </c>
       <c r="G1060" t="n">
         <v>0</v>
@@ -24790,7 +24790,7 @@
         <v>2020</v>
       </c>
       <c r="C1061" s="1" t="n">
-        <v>44039</v>
+        <v>44053</v>
       </c>
       <c r="D1061" t="s">
         <v>8</v>
@@ -24799,7 +24799,7 @@
         <v>1</v>
       </c>
       <c r="F1061" t="n">
-        <v>1096</v>
+        <v>364</v>
       </c>
       <c r="G1061" t="n">
         <v>0</v>
@@ -24813,7 +24813,7 @@
         <v>2020</v>
       </c>
       <c r="C1062" s="1" t="n">
-        <v>44046</v>
+        <v>44060</v>
       </c>
       <c r="D1062" t="s">
         <v>8</v>
@@ -24822,7 +24822,7 @@
         <v>1</v>
       </c>
       <c r="F1062" t="n">
-        <v>800</v>
+        <v>286</v>
       </c>
       <c r="G1062" t="n">
         <v>0</v>
@@ -24836,7 +24836,7 @@
         <v>2020</v>
       </c>
       <c r="C1063" s="1" t="n">
-        <v>44053</v>
+        <v>44067</v>
       </c>
       <c r="D1063" t="s">
         <v>8</v>
@@ -24845,7 +24845,7 @@
         <v>1</v>
       </c>
       <c r="F1063" t="n">
-        <v>1591</v>
+        <v>419</v>
       </c>
       <c r="G1063" t="n">
         <v>0</v>
@@ -24859,7 +24859,7 @@
         <v>2020</v>
       </c>
       <c r="C1064" s="1" t="n">
-        <v>44060</v>
+        <v>44074</v>
       </c>
       <c r="D1064" t="s">
         <v>8</v>
@@ -24868,7 +24868,7 @@
         <v>1</v>
       </c>
       <c r="F1064" t="n">
-        <v>152</v>
+        <v>293</v>
       </c>
       <c r="G1064" t="n">
         <v>0</v>
@@ -24882,7 +24882,7 @@
         <v>2020</v>
       </c>
       <c r="C1065" s="1" t="n">
-        <v>44067</v>
+        <v>44081</v>
       </c>
       <c r="D1065" t="s">
         <v>8</v>
@@ -24891,7 +24891,7 @@
         <v>1</v>
       </c>
       <c r="F1065" t="n">
-        <v>634</v>
+        <v>245</v>
       </c>
       <c r="G1065" t="n">
         <v>0</v>
@@ -24905,7 +24905,7 @@
         <v>2020</v>
       </c>
       <c r="C1066" s="1" t="n">
-        <v>44074</v>
+        <v>44088</v>
       </c>
       <c r="D1066" t="s">
         <v>8</v>
@@ -24914,7 +24914,7 @@
         <v>1</v>
       </c>
       <c r="F1066" t="n">
-        <v>497</v>
+        <v>314</v>
       </c>
       <c r="G1066" t="n">
         <v>0</v>
@@ -24928,7 +24928,7 @@
         <v>2020</v>
       </c>
       <c r="C1067" s="1" t="n">
-        <v>44081</v>
+        <v>44095</v>
       </c>
       <c r="D1067" t="s">
         <v>8</v>
@@ -24937,7 +24937,7 @@
         <v>1</v>
       </c>
       <c r="F1067" t="n">
-        <v>250</v>
+        <v>765</v>
       </c>
       <c r="G1067" t="n">
         <v>0</v>
@@ -24951,7 +24951,7 @@
         <v>2020</v>
       </c>
       <c r="C1068" s="1" t="n">
-        <v>44088</v>
+        <v>44102</v>
       </c>
       <c r="D1068" t="s">
         <v>8</v>
@@ -24960,7 +24960,7 @@
         <v>1</v>
       </c>
       <c r="F1068" t="n">
-        <v>205</v>
+        <v>467</v>
       </c>
       <c r="G1068" t="n">
         <v>0</v>
@@ -24974,7 +24974,7 @@
         <v>2020</v>
       </c>
       <c r="C1069" s="1" t="n">
-        <v>44095</v>
+        <v>44109</v>
       </c>
       <c r="D1069" t="s">
         <v>8</v>
@@ -24983,7 +24983,7 @@
         <v>1</v>
       </c>
       <c r="F1069" t="n">
-        <v>1147</v>
+        <v>401</v>
       </c>
       <c r="G1069" t="n">
         <v>0</v>
@@ -24997,7 +24997,7 @@
         <v>2020</v>
       </c>
       <c r="C1070" s="1" t="n">
-        <v>44102</v>
+        <v>44116</v>
       </c>
       <c r="D1070" t="s">
         <v>8</v>
@@ -25006,7 +25006,7 @@
         <v>1</v>
       </c>
       <c r="F1070" t="n">
-        <v>493</v>
+        <v>1253</v>
       </c>
       <c r="G1070" t="n">
         <v>0</v>
@@ -25020,7 +25020,7 @@
         <v>2020</v>
       </c>
       <c r="C1071" s="1" t="n">
-        <v>44109</v>
+        <v>44123</v>
       </c>
       <c r="D1071" t="s">
         <v>8</v>
@@ -25029,7 +25029,7 @@
         <v>1</v>
       </c>
       <c r="F1071" t="n">
-        <v>881</v>
+        <v>1134</v>
       </c>
       <c r="G1071" t="n">
         <v>0</v>
@@ -25043,7 +25043,7 @@
         <v>2020</v>
       </c>
       <c r="C1072" s="1" t="n">
-        <v>44116</v>
+        <v>44130</v>
       </c>
       <c r="D1072" t="s">
         <v>8</v>
@@ -25052,7 +25052,7 @@
         <v>1</v>
       </c>
       <c r="F1072" t="n">
-        <v>1299</v>
+        <v>697</v>
       </c>
       <c r="G1072" t="n">
         <v>0</v>
@@ -25066,7 +25066,7 @@
         <v>2020</v>
       </c>
       <c r="C1073" s="1" t="n">
-        <v>44123</v>
+        <v>44137</v>
       </c>
       <c r="D1073" t="s">
         <v>8</v>
@@ -25075,7 +25075,7 @@
         <v>1</v>
       </c>
       <c r="F1073" t="n">
-        <v>871</v>
+        <v>1572</v>
       </c>
       <c r="G1073" t="n">
         <v>0</v>
@@ -25089,7 +25089,7 @@
         <v>2020</v>
       </c>
       <c r="C1074" s="1" t="n">
-        <v>44130</v>
+        <v>44144</v>
       </c>
       <c r="D1074" t="s">
         <v>8</v>
@@ -25098,7 +25098,7 @@
         <v>1</v>
       </c>
       <c r="F1074" t="n">
-        <v>133</v>
+        <v>2273</v>
       </c>
       <c r="G1074" t="n">
         <v>0</v>
@@ -25112,7 +25112,7 @@
         <v>2020</v>
       </c>
       <c r="C1075" s="1" t="n">
-        <v>44137</v>
+        <v>44151</v>
       </c>
       <c r="D1075" t="s">
         <v>8</v>
@@ -25121,7 +25121,7 @@
         <v>1</v>
       </c>
       <c r="F1075" t="n">
-        <v>617</v>
+        <v>1345</v>
       </c>
       <c r="G1075" t="n">
         <v>0</v>
@@ -25135,7 +25135,7 @@
         <v>2020</v>
       </c>
       <c r="C1076" s="1" t="n">
-        <v>44144</v>
+        <v>44158</v>
       </c>
       <c r="D1076" t="s">
         <v>8</v>
@@ -25144,7 +25144,7 @@
         <v>1</v>
       </c>
       <c r="F1076" t="n">
-        <v>1848</v>
+        <v>532</v>
       </c>
       <c r="G1076" t="n">
         <v>0</v>
@@ -25158,7 +25158,7 @@
         <v>2020</v>
       </c>
       <c r="C1077" s="1" t="n">
-        <v>44151</v>
+        <v>44165</v>
       </c>
       <c r="D1077" t="s">
         <v>8</v>
@@ -25167,7 +25167,7 @@
         <v>1</v>
       </c>
       <c r="F1077" t="n">
-        <v>1063</v>
+        <v>989</v>
       </c>
       <c r="G1077" t="n">
         <v>0</v>
@@ -25181,7 +25181,7 @@
         <v>2020</v>
       </c>
       <c r="C1078" s="1" t="n">
-        <v>44158</v>
+        <v>44172</v>
       </c>
       <c r="D1078" t="s">
         <v>8</v>
@@ -25190,7 +25190,7 @@
         <v>1</v>
       </c>
       <c r="F1078" t="n">
-        <v>1479</v>
+        <v>3989</v>
       </c>
       <c r="G1078" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>2020</v>
       </c>
       <c r="C1079" s="1" t="n">
-        <v>44165</v>
+        <v>44179</v>
       </c>
       <c r="D1079" t="s">
         <v>8</v>
@@ -25213,7 +25213,7 @@
         <v>1</v>
       </c>
       <c r="F1079" t="n">
-        <v>1256</v>
+        <v>3585</v>
       </c>
       <c r="G1079" t="n">
         <v>0</v>
@@ -25227,7 +25227,7 @@
         <v>2020</v>
       </c>
       <c r="C1080" s="1" t="n">
-        <v>44172</v>
+        <v>44186</v>
       </c>
       <c r="D1080" t="s">
         <v>8</v>
@@ -25236,7 +25236,7 @@
         <v>1</v>
       </c>
       <c r="F1080" t="n">
-        <v>959</v>
+        <v>1233</v>
       </c>
       <c r="G1080" t="n">
         <v>0</v>
@@ -25250,7 +25250,7 @@
         <v>2020</v>
       </c>
       <c r="C1081" s="1" t="n">
-        <v>44179</v>
+        <v>44193</v>
       </c>
       <c r="D1081" t="s">
         <v>8</v>
@@ -25259,7 +25259,7 @@
         <v>1</v>
       </c>
       <c r="F1081" t="n">
-        <v>3110</v>
+        <v>1851</v>
       </c>
       <c r="G1081" t="n">
         <v>0</v>
@@ -25270,10 +25270,10 @@
         <v>16</v>
       </c>
       <c r="B1082" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C1082" s="1" t="n">
-        <v>44186</v>
+        <v>44200</v>
       </c>
       <c r="D1082" t="s">
         <v>8</v>
@@ -25282,7 +25282,7 @@
         <v>1</v>
       </c>
       <c r="F1082" t="n">
-        <v>2507</v>
+        <v>2375</v>
       </c>
       <c r="G1082" t="n">
         <v>0</v>
@@ -25293,10 +25293,10 @@
         <v>16</v>
       </c>
       <c r="B1083" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C1083" s="1" t="n">
-        <v>44193</v>
+        <v>44207</v>
       </c>
       <c r="D1083" t="s">
         <v>8</v>
@@ -25305,7 +25305,7 @@
         <v>1</v>
       </c>
       <c r="F1083" t="n">
-        <v>2981</v>
+        <v>4213</v>
       </c>
       <c r="G1083" t="n">
         <v>0</v>
@@ -25319,7 +25319,7 @@
         <v>2021</v>
       </c>
       <c r="C1084" s="1" t="n">
-        <v>44200</v>
+        <v>44214</v>
       </c>
       <c r="D1084" t="s">
         <v>8</v>
@@ -25328,7 +25328,7 @@
         <v>1</v>
       </c>
       <c r="F1084" t="n">
-        <v>2503</v>
+        <v>1492</v>
       </c>
       <c r="G1084" t="n">
         <v>0</v>
@@ -25342,7 +25342,7 @@
         <v>2021</v>
       </c>
       <c r="C1085" s="1" t="n">
-        <v>44207</v>
+        <v>44221</v>
       </c>
       <c r="D1085" t="s">
         <v>8</v>
@@ -25351,7 +25351,7 @@
         <v>1</v>
       </c>
       <c r="F1085" t="n">
-        <v>2606</v>
+        <v>18</v>
       </c>
       <c r="G1085" t="n">
         <v>0</v>
@@ -25365,7 +25365,7 @@
         <v>2021</v>
       </c>
       <c r="C1086" s="1" t="n">
-        <v>44214</v>
+        <v>44228</v>
       </c>
       <c r="D1086" t="s">
         <v>8</v>
@@ -25374,7 +25374,7 @@
         <v>1</v>
       </c>
       <c r="F1086" t="n">
-        <v>1607</v>
+        <v>142</v>
       </c>
       <c r="G1086" t="n">
         <v>0</v>
@@ -25388,7 +25388,7 @@
         <v>2021</v>
       </c>
       <c r="C1087" s="1" t="n">
-        <v>44221</v>
+        <v>44235</v>
       </c>
       <c r="D1087" t="s">
         <v>8</v>
@@ -25397,7 +25397,7 @@
         <v>1</v>
       </c>
       <c r="F1087" t="n">
-        <v>1418</v>
+        <v>32</v>
       </c>
       <c r="G1087" t="n">
         <v>0</v>
@@ -25411,7 +25411,7 @@
         <v>2021</v>
       </c>
       <c r="C1088" s="1" t="n">
-        <v>44228</v>
+        <v>44242</v>
       </c>
       <c r="D1088" t="s">
         <v>8</v>
@@ -25420,7 +25420,7 @@
         <v>1</v>
       </c>
       <c r="F1088" t="n">
-        <v>322</v>
+        <v>14</v>
       </c>
       <c r="G1088" t="n">
         <v>0</v>
@@ -25434,7 +25434,7 @@
         <v>2021</v>
       </c>
       <c r="C1089" s="1" t="n">
-        <v>44235</v>
+        <v>44249</v>
       </c>
       <c r="D1089" t="s">
         <v>8</v>
@@ -25443,7 +25443,7 @@
         <v>1</v>
       </c>
       <c r="F1089" t="n">
-        <v>12</v>
+        <v>229</v>
       </c>
       <c r="G1089" t="n">
         <v>0</v>
@@ -25457,7 +25457,7 @@
         <v>2021</v>
       </c>
       <c r="C1090" s="1" t="n">
-        <v>44242</v>
+        <v>44270</v>
       </c>
       <c r="D1090" t="s">
         <v>8</v>
@@ -25466,7 +25466,7 @@
         <v>1</v>
       </c>
       <c r="F1090" t="n">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="G1090" t="n">
         <v>0</v>
@@ -25480,7 +25480,7 @@
         <v>2021</v>
       </c>
       <c r="C1091" s="1" t="n">
-        <v>44249</v>
+        <v>44277</v>
       </c>
       <c r="D1091" t="s">
         <v>8</v>
@@ -25489,7 +25489,7 @@
         <v>1</v>
       </c>
       <c r="F1091" t="n">
-        <v>3</v>
+        <v>160</v>
       </c>
       <c r="G1091" t="n">
         <v>0</v>
@@ -25503,7 +25503,7 @@
         <v>2021</v>
       </c>
       <c r="C1092" s="1" t="n">
-        <v>44270</v>
+        <v>44284</v>
       </c>
       <c r="D1092" t="s">
         <v>8</v>
@@ -25512,7 +25512,7 @@
         <v>1</v>
       </c>
       <c r="F1092" t="n">
-        <v>35</v>
+        <v>110</v>
       </c>
       <c r="G1092" t="n">
         <v>0</v>
@@ -25526,7 +25526,7 @@
         <v>2021</v>
       </c>
       <c r="C1093" s="1" t="n">
-        <v>44277</v>
+        <v>44291</v>
       </c>
       <c r="D1093" t="s">
         <v>8</v>
@@ -25535,7 +25535,7 @@
         <v>1</v>
       </c>
       <c r="F1093" t="n">
-        <v>89</v>
+        <v>277</v>
       </c>
       <c r="G1093" t="n">
         <v>0</v>
@@ -25549,7 +25549,7 @@
         <v>2021</v>
       </c>
       <c r="C1094" s="1" t="n">
-        <v>44284</v>
+        <v>44298</v>
       </c>
       <c r="D1094" t="s">
         <v>8</v>
@@ -25558,7 +25558,7 @@
         <v>1</v>
       </c>
       <c r="F1094" t="n">
-        <v>244</v>
+        <v>194</v>
       </c>
       <c r="G1094" t="n">
         <v>0</v>
@@ -25572,7 +25572,7 @@
         <v>2021</v>
       </c>
       <c r="C1095" s="1" t="n">
-        <v>44291</v>
+        <v>44305</v>
       </c>
       <c r="D1095" t="s">
         <v>8</v>
@@ -25581,7 +25581,7 @@
         <v>1</v>
       </c>
       <c r="F1095" t="n">
-        <v>132</v>
+        <v>96</v>
       </c>
       <c r="G1095" t="n">
         <v>0</v>
@@ -25595,7 +25595,7 @@
         <v>2021</v>
       </c>
       <c r="C1096" s="1" t="n">
-        <v>44298</v>
+        <v>44312</v>
       </c>
       <c r="D1096" t="s">
         <v>8</v>
@@ -25604,7 +25604,7 @@
         <v>1</v>
       </c>
       <c r="F1096" t="n">
-        <v>147</v>
+        <v>66</v>
       </c>
       <c r="G1096" t="n">
         <v>0</v>
@@ -25618,7 +25618,7 @@
         <v>2021</v>
       </c>
       <c r="C1097" s="1" t="n">
-        <v>44305</v>
+        <v>44319</v>
       </c>
       <c r="D1097" t="s">
         <v>8</v>
@@ -25627,7 +25627,7 @@
         <v>1</v>
       </c>
       <c r="F1097" t="n">
-        <v>177</v>
+        <v>67</v>
       </c>
       <c r="G1097" t="n">
         <v>0</v>
@@ -25641,7 +25641,7 @@
         <v>2021</v>
       </c>
       <c r="C1098" s="1" t="n">
-        <v>44312</v>
+        <v>44326</v>
       </c>
       <c r="D1098" t="s">
         <v>8</v>
@@ -25650,7 +25650,7 @@
         <v>1</v>
       </c>
       <c r="F1098" t="n">
-        <v>132</v>
+        <v>46</v>
       </c>
       <c r="G1098" t="n">
         <v>0</v>
@@ -25664,7 +25664,7 @@
         <v>2021</v>
       </c>
       <c r="C1099" s="1" t="n">
-        <v>44319</v>
+        <v>44333</v>
       </c>
       <c r="D1099" t="s">
         <v>8</v>
@@ -25673,7 +25673,7 @@
         <v>1</v>
       </c>
       <c r="F1099" t="n">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="G1099" t="n">
         <v>0</v>
@@ -25687,7 +25687,7 @@
         <v>2021</v>
       </c>
       <c r="C1100" s="1" t="n">
-        <v>44326</v>
+        <v>44340</v>
       </c>
       <c r="D1100" t="s">
         <v>8</v>
@@ -25696,7 +25696,7 @@
         <v>1</v>
       </c>
       <c r="F1100" t="n">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="G1100" t="n">
         <v>0</v>
@@ -25710,7 +25710,7 @@
         <v>2021</v>
       </c>
       <c r="C1101" s="1" t="n">
-        <v>44333</v>
+        <v>44347</v>
       </c>
       <c r="D1101" t="s">
         <v>8</v>
@@ -25719,7 +25719,7 @@
         <v>1</v>
       </c>
       <c r="F1101" t="n">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="G1101" t="n">
         <v>0</v>
@@ -25733,7 +25733,7 @@
         <v>2021</v>
       </c>
       <c r="C1102" s="1" t="n">
-        <v>44340</v>
+        <v>44354</v>
       </c>
       <c r="D1102" t="s">
         <v>8</v>
@@ -25742,7 +25742,7 @@
         <v>1</v>
       </c>
       <c r="F1102" t="n">
-        <v>36</v>
+        <v>98</v>
       </c>
       <c r="G1102" t="n">
         <v>0</v>
@@ -25756,7 +25756,7 @@
         <v>2021</v>
       </c>
       <c r="C1103" s="1" t="n">
-        <v>44347</v>
+        <v>44361</v>
       </c>
       <c r="D1103" t="s">
         <v>8</v>
@@ -25765,7 +25765,7 @@
         <v>1</v>
       </c>
       <c r="F1103" t="n">
-        <v>58</v>
+        <v>4</v>
       </c>
       <c r="G1103" t="n">
         <v>0</v>
@@ -25779,7 +25779,7 @@
         <v>2021</v>
       </c>
       <c r="C1104" s="1" t="n">
-        <v>44354</v>
+        <v>44368</v>
       </c>
       <c r="D1104" t="s">
         <v>8</v>
@@ -25802,7 +25802,7 @@
         <v>2021</v>
       </c>
       <c r="C1105" s="1" t="n">
-        <v>44361</v>
+        <v>44375</v>
       </c>
       <c r="D1105" t="s">
         <v>8</v>
@@ -25811,7 +25811,7 @@
         <v>1</v>
       </c>
       <c r="F1105" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="G1105" t="n">
         <v>0</v>
@@ -25825,7 +25825,7 @@
         <v>2021</v>
       </c>
       <c r="C1106" s="1" t="n">
-        <v>44368</v>
+        <v>44382</v>
       </c>
       <c r="D1106" t="s">
         <v>8</v>
@@ -25834,7 +25834,7 @@
         <v>1</v>
       </c>
       <c r="F1106" t="n">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="G1106" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>2021</v>
       </c>
       <c r="C1107" s="1" t="n">
-        <v>44375</v>
+        <v>44389</v>
       </c>
       <c r="D1107" t="s">
         <v>8</v>
@@ -25857,7 +25857,7 @@
         <v>1</v>
       </c>
       <c r="F1107" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="G1107" t="n">
         <v>0</v>
@@ -25871,7 +25871,7 @@
         <v>2021</v>
       </c>
       <c r="C1108" s="1" t="n">
-        <v>44382</v>
+        <v>44396</v>
       </c>
       <c r="D1108" t="s">
         <v>8</v>
@@ -25880,7 +25880,7 @@
         <v>1</v>
       </c>
       <c r="F1108" t="n">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="G1108" t="n">
         <v>0</v>
@@ -25894,7 +25894,7 @@
         <v>2021</v>
       </c>
       <c r="C1109" s="1" t="n">
-        <v>44389</v>
+        <v>44403</v>
       </c>
       <c r="D1109" t="s">
         <v>8</v>
@@ -25903,7 +25903,7 @@
         <v>1</v>
       </c>
       <c r="F1109" t="n">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="G1109" t="n">
         <v>0</v>
@@ -25917,7 +25917,7 @@
         <v>2021</v>
       </c>
       <c r="C1110" s="1" t="n">
-        <v>44396</v>
+        <v>44410</v>
       </c>
       <c r="D1110" t="s">
         <v>8</v>
@@ -25926,7 +25926,7 @@
         <v>1</v>
       </c>
       <c r="F1110" t="n">
-        <v>150</v>
+        <v>219</v>
       </c>
       <c r="G1110" t="n">
         <v>0</v>
@@ -25940,7 +25940,7 @@
         <v>2021</v>
       </c>
       <c r="C1111" s="1" t="n">
-        <v>44403</v>
+        <v>44417</v>
       </c>
       <c r="D1111" t="s">
         <v>8</v>
@@ -25949,7 +25949,7 @@
         <v>1</v>
       </c>
       <c r="F1111" t="n">
-        <v>237</v>
+        <v>413</v>
       </c>
       <c r="G1111" t="n">
         <v>0</v>
@@ -25963,7 +25963,7 @@
         <v>2021</v>
       </c>
       <c r="C1112" s="1" t="n">
-        <v>44410</v>
+        <v>44424</v>
       </c>
       <c r="D1112" t="s">
         <v>8</v>
@@ -25972,7 +25972,7 @@
         <v>1</v>
       </c>
       <c r="F1112" t="n">
-        <v>353</v>
+        <v>148</v>
       </c>
       <c r="G1112" t="n">
         <v>0</v>
@@ -25986,7 +25986,7 @@
         <v>2021</v>
       </c>
       <c r="C1113" s="1" t="n">
-        <v>44417</v>
+        <v>44431</v>
       </c>
       <c r="D1113" t="s">
         <v>8</v>
@@ -25995,7 +25995,7 @@
         <v>1</v>
       </c>
       <c r="F1113" t="n">
-        <v>541</v>
+        <v>170</v>
       </c>
       <c r="G1113" t="n">
         <v>0</v>
@@ -26009,7 +26009,7 @@
         <v>2021</v>
       </c>
       <c r="C1114" s="1" t="n">
-        <v>44424</v>
+        <v>44438</v>
       </c>
       <c r="D1114" t="s">
         <v>8</v>
@@ -26018,7 +26018,7 @@
         <v>1</v>
       </c>
       <c r="F1114" t="n">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="G1114" t="n">
         <v>0</v>
@@ -26032,7 +26032,7 @@
         <v>2021</v>
       </c>
       <c r="C1115" s="1" t="n">
-        <v>44431</v>
+        <v>44452</v>
       </c>
       <c r="D1115" t="s">
         <v>8</v>
@@ -26041,7 +26041,7 @@
         <v>1</v>
       </c>
       <c r="F1115" t="n">
-        <v>175</v>
+        <v>228</v>
       </c>
       <c r="G1115" t="n">
         <v>0</v>
@@ -26055,7 +26055,7 @@
         <v>2021</v>
       </c>
       <c r="C1116" s="1" t="n">
-        <v>44438</v>
+        <v>44459</v>
       </c>
       <c r="D1116" t="s">
         <v>8</v>
@@ -26064,7 +26064,7 @@
         <v>1</v>
       </c>
       <c r="F1116" t="n">
-        <v>145</v>
+        <v>27</v>
       </c>
       <c r="G1116" t="n">
         <v>0</v>
@@ -26078,7 +26078,7 @@
         <v>2021</v>
       </c>
       <c r="C1117" s="1" t="n">
-        <v>44445</v>
+        <v>44466</v>
       </c>
       <c r="D1117" t="s">
         <v>8</v>
@@ -26087,7 +26087,7 @@
         <v>1</v>
       </c>
       <c r="F1117" t="n">
-        <v>121</v>
+        <v>80</v>
       </c>
       <c r="G1117" t="n">
         <v>0</v>
@@ -26101,7 +26101,7 @@
         <v>2021</v>
       </c>
       <c r="C1118" s="1" t="n">
-        <v>44452</v>
+        <v>44473</v>
       </c>
       <c r="D1118" t="s">
         <v>8</v>
@@ -26110,7 +26110,7 @@
         <v>1</v>
       </c>
       <c r="F1118" t="n">
-        <v>45</v>
+        <v>191</v>
       </c>
       <c r="G1118" t="n">
         <v>0</v>
@@ -26124,7 +26124,7 @@
         <v>2021</v>
       </c>
       <c r="C1119" s="1" t="n">
-        <v>44459</v>
+        <v>44480</v>
       </c>
       <c r="D1119" t="s">
         <v>8</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="F1119" t="n">
-        <v>187</v>
+        <v>87</v>
       </c>
       <c r="G1119" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>2021</v>
       </c>
       <c r="C1120" s="1" t="n">
-        <v>44466</v>
+        <v>44487</v>
       </c>
       <c r="D1120" t="s">
         <v>8</v>
@@ -26156,7 +26156,7 @@
         <v>1</v>
       </c>
       <c r="F1120" t="n">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="G1120" t="n">
         <v>0</v>
@@ -26170,7 +26170,7 @@
         <v>2021</v>
       </c>
       <c r="C1121" s="1" t="n">
-        <v>44473</v>
+        <v>44494</v>
       </c>
       <c r="D1121" t="s">
         <v>8</v>
@@ -26179,7 +26179,7 @@
         <v>1</v>
       </c>
       <c r="F1121" t="n">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="G1121" t="n">
         <v>0</v>
@@ -26193,7 +26193,7 @@
         <v>2021</v>
       </c>
       <c r="C1122" s="1" t="n">
-        <v>44480</v>
+        <v>44501</v>
       </c>
       <c r="D1122" t="s">
         <v>8</v>
@@ -26202,7 +26202,7 @@
         <v>1</v>
       </c>
       <c r="F1122" t="n">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G1122" t="n">
         <v>0</v>
@@ -26216,7 +26216,7 @@
         <v>2021</v>
       </c>
       <c r="C1123" s="1" t="n">
-        <v>44487</v>
+        <v>44508</v>
       </c>
       <c r="D1123" t="s">
         <v>8</v>
@@ -26225,7 +26225,7 @@
         <v>1</v>
       </c>
       <c r="F1123" t="n">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G1123" t="n">
         <v>0</v>
@@ -26239,7 +26239,7 @@
         <v>2021</v>
       </c>
       <c r="C1124" s="1" t="n">
-        <v>44494</v>
+        <v>44515</v>
       </c>
       <c r="D1124" t="s">
         <v>8</v>
@@ -26248,7 +26248,7 @@
         <v>1</v>
       </c>
       <c r="F1124" t="n">
-        <v>208</v>
+        <v>29</v>
       </c>
       <c r="G1124" t="n">
         <v>0</v>
@@ -26262,7 +26262,7 @@
         <v>2021</v>
       </c>
       <c r="C1125" s="1" t="n">
-        <v>44501</v>
+        <v>44522</v>
       </c>
       <c r="D1125" t="s">
         <v>8</v>
@@ -26271,7 +26271,7 @@
         <v>1</v>
       </c>
       <c r="F1125" t="n">
-        <v>395</v>
+        <v>93</v>
       </c>
       <c r="G1125" t="n">
         <v>0</v>
@@ -26285,7 +26285,7 @@
         <v>2021</v>
       </c>
       <c r="C1126" s="1" t="n">
-        <v>44508</v>
+        <v>44529</v>
       </c>
       <c r="D1126" t="s">
         <v>8</v>
@@ -26294,7 +26294,7 @@
         <v>1</v>
       </c>
       <c r="F1126" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G1126" t="n">
         <v>0</v>
@@ -26308,7 +26308,7 @@
         <v>2021</v>
       </c>
       <c r="C1127" s="1" t="n">
-        <v>44515</v>
+        <v>44536</v>
       </c>
       <c r="D1127" t="s">
         <v>8</v>
@@ -26317,7 +26317,7 @@
         <v>1</v>
       </c>
       <c r="F1127" t="n">
-        <v>20</v>
+        <v>141</v>
       </c>
       <c r="G1127" t="n">
         <v>0</v>
@@ -26331,7 +26331,7 @@
         <v>2021</v>
       </c>
       <c r="C1128" s="1" t="n">
-        <v>44522</v>
+        <v>44543</v>
       </c>
       <c r="D1128" t="s">
         <v>8</v>
@@ -26340,7 +26340,7 @@
         <v>1</v>
       </c>
       <c r="F1128" t="n">
-        <v>138</v>
+        <v>4</v>
       </c>
       <c r="G1128" t="n">
         <v>0</v>
@@ -26354,7 +26354,7 @@
         <v>2021</v>
       </c>
       <c r="C1129" s="1" t="n">
-        <v>44529</v>
+        <v>44550</v>
       </c>
       <c r="D1129" t="s">
         <v>8</v>
@@ -26363,7 +26363,7 @@
         <v>1</v>
       </c>
       <c r="F1129" t="n">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="G1129" t="n">
         <v>0</v>
@@ -26377,7 +26377,7 @@
         <v>2021</v>
       </c>
       <c r="C1130" s="1" t="n">
-        <v>44536</v>
+        <v>44557</v>
       </c>
       <c r="D1130" t="s">
         <v>8</v>
@@ -26386,7 +26386,7 @@
         <v>1</v>
       </c>
       <c r="F1130" t="n">
-        <v>195</v>
+        <v>31</v>
       </c>
       <c r="G1130" t="n">
         <v>0</v>
@@ -26397,10 +26397,10 @@
         <v>16</v>
       </c>
       <c r="B1131" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1131" s="1" t="n">
-        <v>44550</v>
+        <v>44564</v>
       </c>
       <c r="D1131" t="s">
         <v>8</v>
@@ -26409,7 +26409,7 @@
         <v>1</v>
       </c>
       <c r="F1131" t="n">
-        <v>57</v>
+        <v>115</v>
       </c>
       <c r="G1131" t="n">
         <v>0</v>
@@ -26420,10 +26420,10 @@
         <v>16</v>
       </c>
       <c r="B1132" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C1132" s="1" t="n">
-        <v>44557</v>
+        <v>44571</v>
       </c>
       <c r="D1132" t="s">
         <v>8</v>
@@ -26432,7 +26432,7 @@
         <v>1</v>
       </c>
       <c r="F1132" t="n">
-        <v>171</v>
+        <v>2</v>
       </c>
       <c r="G1132" t="n">
         <v>0</v>
@@ -26446,7 +26446,7 @@
         <v>2022</v>
       </c>
       <c r="C1133" s="1" t="n">
-        <v>44564</v>
+        <v>44578</v>
       </c>
       <c r="D1133" t="s">
         <v>8</v>
@@ -26455,7 +26455,7 @@
         <v>1</v>
       </c>
       <c r="F1133" t="n">
-        <v>203</v>
+        <v>20</v>
       </c>
       <c r="G1133" t="n">
         <v>0</v>
@@ -26469,7 +26469,7 @@
         <v>2022</v>
       </c>
       <c r="C1134" s="1" t="n">
-        <v>44571</v>
+        <v>44585</v>
       </c>
       <c r="D1134" t="s">
         <v>8</v>
@@ -26478,7 +26478,7 @@
         <v>1</v>
       </c>
       <c r="F1134" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="G1134" t="n">
         <v>0</v>
@@ -26492,7 +26492,7 @@
         <v>2022</v>
       </c>
       <c r="C1135" s="1" t="n">
-        <v>44578</v>
+        <v>44592</v>
       </c>
       <c r="D1135" t="s">
         <v>8</v>
@@ -26501,7 +26501,7 @@
         <v>1</v>
       </c>
       <c r="F1135" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G1135" t="n">
         <v>0</v>
@@ -26515,7 +26515,7 @@
         <v>2022</v>
       </c>
       <c r="C1136" s="1" t="n">
-        <v>44585</v>
+        <v>44599</v>
       </c>
       <c r="D1136" t="s">
         <v>8</v>
@@ -26524,7 +26524,7 @@
         <v>1</v>
       </c>
       <c r="F1136" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G1136" t="n">
         <v>0</v>
@@ -26538,7 +26538,7 @@
         <v>2022</v>
       </c>
       <c r="C1137" s="1" t="n">
-        <v>44592</v>
+        <v>44606</v>
       </c>
       <c r="D1137" t="s">
         <v>8</v>
@@ -26547,7 +26547,7 @@
         <v>1</v>
       </c>
       <c r="F1137" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G1137" t="n">
         <v>0</v>
@@ -26561,7 +26561,7 @@
         <v>2022</v>
       </c>
       <c r="C1138" s="1" t="n">
-        <v>44599</v>
+        <v>44613</v>
       </c>
       <c r="D1138" t="s">
         <v>8</v>
@@ -26570,7 +26570,7 @@
         <v>1</v>
       </c>
       <c r="F1138" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="G1138" t="n">
         <v>0</v>
@@ -26584,7 +26584,7 @@
         <v>2022</v>
       </c>
       <c r="C1139" s="1" t="n">
-        <v>44606</v>
+        <v>44620</v>
       </c>
       <c r="D1139" t="s">
         <v>8</v>
@@ -26593,7 +26593,7 @@
         <v>1</v>
       </c>
       <c r="F1139" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G1139" t="n">
         <v>0</v>
@@ -26607,7 +26607,7 @@
         <v>2022</v>
       </c>
       <c r="C1140" s="1" t="n">
-        <v>44613</v>
+        <v>44627</v>
       </c>
       <c r="D1140" t="s">
         <v>8</v>
@@ -26616,7 +26616,7 @@
         <v>1</v>
       </c>
       <c r="F1140" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="G1140" t="n">
         <v>0</v>
@@ -26630,7 +26630,7 @@
         <v>2022</v>
       </c>
       <c r="C1141" s="1" t="n">
-        <v>44620</v>
+        <v>44634</v>
       </c>
       <c r="D1141" t="s">
         <v>8</v>
@@ -26639,7 +26639,7 @@
         <v>1</v>
       </c>
       <c r="F1141" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G1141" t="n">
         <v>0</v>
@@ -26653,7 +26653,7 @@
         <v>2022</v>
       </c>
       <c r="C1142" s="1" t="n">
-        <v>44627</v>
+        <v>44641</v>
       </c>
       <c r="D1142" t="s">
         <v>8</v>
@@ -26662,7 +26662,7 @@
         <v>1</v>
       </c>
       <c r="F1142" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="G1142" t="n">
         <v>0</v>
@@ -26676,7 +26676,7 @@
         <v>2022</v>
       </c>
       <c r="C1143" s="1" t="n">
-        <v>44634</v>
+        <v>44648</v>
       </c>
       <c r="D1143" t="s">
         <v>8</v>
@@ -26699,7 +26699,7 @@
         <v>2022</v>
       </c>
       <c r="C1144" s="1" t="n">
-        <v>44641</v>
+        <v>44655</v>
       </c>
       <c r="D1144" t="s">
         <v>8</v>
@@ -26708,7 +26708,7 @@
         <v>1</v>
       </c>
       <c r="F1144" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G1144" t="n">
         <v>0</v>
@@ -26722,7 +26722,7 @@
         <v>2022</v>
       </c>
       <c r="C1145" s="1" t="n">
-        <v>44648</v>
+        <v>44662</v>
       </c>
       <c r="D1145" t="s">
         <v>8</v>
@@ -26731,7 +26731,7 @@
         <v>1</v>
       </c>
       <c r="F1145" t="n">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="G1145" t="n">
         <v>0</v>
@@ -26745,7 +26745,7 @@
         <v>2022</v>
       </c>
       <c r="C1146" s="1" t="n">
-        <v>44655</v>
+        <v>44669</v>
       </c>
       <c r="D1146" t="s">
         <v>8</v>
@@ -26754,7 +26754,7 @@
         <v>1</v>
       </c>
       <c r="F1146" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G1146" t="n">
         <v>0</v>
@@ -26768,7 +26768,7 @@
         <v>2022</v>
       </c>
       <c r="C1147" s="1" t="n">
-        <v>44662</v>
+        <v>44676</v>
       </c>
       <c r="D1147" t="s">
         <v>8</v>
@@ -26777,7 +26777,7 @@
         <v>1</v>
       </c>
       <c r="F1147" t="n">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="G1147" t="n">
         <v>0</v>
@@ -26791,7 +26791,7 @@
         <v>2022</v>
       </c>
       <c r="C1148" s="1" t="n">
-        <v>44669</v>
+        <v>44683</v>
       </c>
       <c r="D1148" t="s">
         <v>8</v>
@@ -26800,7 +26800,7 @@
         <v>1</v>
       </c>
       <c r="F1148" t="n">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="G1148" t="n">
         <v>0</v>
@@ -26814,7 +26814,7 @@
         <v>2022</v>
       </c>
       <c r="C1149" s="1" t="n">
-        <v>44676</v>
+        <v>44690</v>
       </c>
       <c r="D1149" t="s">
         <v>8</v>
@@ -26823,7 +26823,7 @@
         <v>1</v>
       </c>
       <c r="F1149" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="G1149" t="n">
         <v>0</v>
@@ -26837,7 +26837,7 @@
         <v>2022</v>
       </c>
       <c r="C1150" s="1" t="n">
-        <v>44683</v>
+        <v>44697</v>
       </c>
       <c r="D1150" t="s">
         <v>8</v>
@@ -26846,7 +26846,7 @@
         <v>1</v>
       </c>
       <c r="F1150" t="n">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="G1150" t="n">
         <v>0</v>
@@ -26860,7 +26860,7 @@
         <v>2022</v>
       </c>
       <c r="C1151" s="1" t="n">
-        <v>44690</v>
+        <v>44704</v>
       </c>
       <c r="D1151" t="s">
         <v>8</v>
@@ -26869,7 +26869,7 @@
         <v>1</v>
       </c>
       <c r="F1151" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="G1151" t="n">
         <v>0</v>
@@ -26883,7 +26883,7 @@
         <v>2022</v>
       </c>
       <c r="C1152" s="1" t="n">
-        <v>44697</v>
+        <v>44711</v>
       </c>
       <c r="D1152" t="s">
         <v>8</v>
@@ -26892,7 +26892,7 @@
         <v>1</v>
       </c>
       <c r="F1152" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="G1152" t="n">
         <v>0</v>
@@ -26906,7 +26906,7 @@
         <v>2022</v>
       </c>
       <c r="C1153" s="1" t="n">
-        <v>44704</v>
+        <v>44718</v>
       </c>
       <c r="D1153" t="s">
         <v>8</v>
@@ -26915,7 +26915,7 @@
         <v>1</v>
       </c>
       <c r="F1153" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G1153" t="n">
         <v>0</v>
@@ -26929,7 +26929,7 @@
         <v>2022</v>
       </c>
       <c r="C1154" s="1" t="n">
-        <v>44711</v>
+        <v>44725</v>
       </c>
       <c r="D1154" t="s">
         <v>8</v>
@@ -26938,7 +26938,7 @@
         <v>1</v>
       </c>
       <c r="F1154" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G1154" t="n">
         <v>0</v>
@@ -26952,7 +26952,7 @@
         <v>2022</v>
       </c>
       <c r="C1155" s="1" t="n">
-        <v>44718</v>
+        <v>44732</v>
       </c>
       <c r="D1155" t="s">
         <v>8</v>
@@ -26961,7 +26961,7 @@
         <v>1</v>
       </c>
       <c r="F1155" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="G1155" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>2022</v>
       </c>
       <c r="C1156" s="1" t="n">
-        <v>44725</v>
+        <v>44739</v>
       </c>
       <c r="D1156" t="s">
         <v>8</v>
@@ -26984,7 +26984,7 @@
         <v>1</v>
       </c>
       <c r="F1156" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="G1156" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>2022</v>
       </c>
       <c r="C1157" s="1" t="n">
-        <v>44732</v>
+        <v>44746</v>
       </c>
       <c r="D1157" t="s">
         <v>8</v>
@@ -27007,7 +27007,7 @@
         <v>1</v>
       </c>
       <c r="F1157" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="G1157" t="n">
         <v>0</v>
@@ -27021,7 +27021,7 @@
         <v>2022</v>
       </c>
       <c r="C1158" s="1" t="n">
-        <v>44739</v>
+        <v>44753</v>
       </c>
       <c r="D1158" t="s">
         <v>8</v>
@@ -27030,7 +27030,7 @@
         <v>1</v>
       </c>
       <c r="F1158" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="G1158" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>2022</v>
       </c>
       <c r="C1159" s="1" t="n">
-        <v>44746</v>
+        <v>44760</v>
       </c>
       <c r="D1159" t="s">
         <v>8</v>
@@ -27053,7 +27053,7 @@
         <v>1</v>
       </c>
       <c r="F1159" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G1159" t="n">
         <v>0</v>
@@ -27067,7 +27067,7 @@
         <v>2022</v>
       </c>
       <c r="C1160" s="1" t="n">
-        <v>44753</v>
+        <v>44767</v>
       </c>
       <c r="D1160" t="s">
         <v>8</v>
@@ -27076,7 +27076,7 @@
         <v>1</v>
       </c>
       <c r="F1160" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G1160" t="n">
         <v>0</v>
@@ -27090,7 +27090,7 @@
         <v>2022</v>
       </c>
       <c r="C1161" s="1" t="n">
-        <v>44760</v>
+        <v>44774</v>
       </c>
       <c r="D1161" t="s">
         <v>8</v>
@@ -27099,7 +27099,7 @@
         <v>1</v>
       </c>
       <c r="F1161" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G1161" t="n">
         <v>0</v>
@@ -27113,7 +27113,7 @@
         <v>2022</v>
       </c>
       <c r="C1162" s="1" t="n">
-        <v>44767</v>
+        <v>44781</v>
       </c>
       <c r="D1162" t="s">
         <v>8</v>
@@ -27122,7 +27122,7 @@
         <v>1</v>
       </c>
       <c r="F1162" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="G1162" t="n">
         <v>0</v>
@@ -27136,7 +27136,7 @@
         <v>2022</v>
       </c>
       <c r="C1163" s="1" t="n">
-        <v>44774</v>
+        <v>44788</v>
       </c>
       <c r="D1163" t="s">
         <v>8</v>
@@ -27145,7 +27145,7 @@
         <v>1</v>
       </c>
       <c r="F1163" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G1163" t="n">
         <v>0</v>
@@ -27159,7 +27159,7 @@
         <v>2022</v>
       </c>
       <c r="C1164" s="1" t="n">
-        <v>44781</v>
+        <v>44795</v>
       </c>
       <c r="D1164" t="s">
         <v>8</v>
@@ -27168,7 +27168,7 @@
         <v>1</v>
       </c>
       <c r="F1164" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G1164" t="n">
         <v>0</v>
@@ -27182,7 +27182,7 @@
         <v>2022</v>
       </c>
       <c r="C1165" s="1" t="n">
-        <v>44788</v>
+        <v>44802</v>
       </c>
       <c r="D1165" t="s">
         <v>8</v>
@@ -27191,7 +27191,7 @@
         <v>1</v>
       </c>
       <c r="F1165" t="n">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="G1165" t="n">
         <v>0</v>
@@ -27205,7 +27205,7 @@
         <v>2022</v>
       </c>
       <c r="C1166" s="1" t="n">
-        <v>44795</v>
+        <v>44809</v>
       </c>
       <c r="D1166" t="s">
         <v>8</v>
@@ -27214,7 +27214,7 @@
         <v>1</v>
       </c>
       <c r="F1166" t="n">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="G1166" t="n">
         <v>0</v>
@@ -27228,7 +27228,7 @@
         <v>2022</v>
       </c>
       <c r="C1167" s="1" t="n">
-        <v>44802</v>
+        <v>44816</v>
       </c>
       <c r="D1167" t="s">
         <v>8</v>
@@ -27237,7 +27237,7 @@
         <v>1</v>
       </c>
       <c r="F1167" t="n">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="G1167" t="n">
         <v>0</v>
@@ -27251,7 +27251,7 @@
         <v>2022</v>
       </c>
       <c r="C1168" s="1" t="n">
-        <v>44809</v>
+        <v>44823</v>
       </c>
       <c r="D1168" t="s">
         <v>8</v>
@@ -27260,7 +27260,7 @@
         <v>1</v>
       </c>
       <c r="F1168" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G1168" t="n">
         <v>0</v>
@@ -27274,7 +27274,7 @@
         <v>2022</v>
       </c>
       <c r="C1169" s="1" t="n">
-        <v>44816</v>
+        <v>44830</v>
       </c>
       <c r="D1169" t="s">
         <v>8</v>
@@ -27283,7 +27283,7 @@
         <v>1</v>
       </c>
       <c r="F1169" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="G1169" t="n">
         <v>0</v>
@@ -27297,7 +27297,7 @@
         <v>2022</v>
       </c>
       <c r="C1170" s="1" t="n">
-        <v>44823</v>
+        <v>44837</v>
       </c>
       <c r="D1170" t="s">
         <v>8</v>
@@ -27306,7 +27306,7 @@
         <v>1</v>
       </c>
       <c r="F1170" t="n">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="G1170" t="n">
         <v>0</v>
@@ -27320,7 +27320,7 @@
         <v>2022</v>
       </c>
       <c r="C1171" s="1" t="n">
-        <v>44830</v>
+        <v>44844</v>
       </c>
       <c r="D1171" t="s">
         <v>8</v>
@@ -27329,7 +27329,7 @@
         <v>1</v>
       </c>
       <c r="F1171" t="n">
-        <v>133</v>
+        <v>7</v>
       </c>
       <c r="G1171" t="n">
         <v>0</v>
@@ -27343,7 +27343,7 @@
         <v>2022</v>
       </c>
       <c r="C1172" s="1" t="n">
-        <v>44837</v>
+        <v>44851</v>
       </c>
       <c r="D1172" t="s">
         <v>8</v>
@@ -27352,7 +27352,7 @@
         <v>1</v>
       </c>
       <c r="F1172" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G1172" t="n">
         <v>0</v>
@@ -27366,7 +27366,7 @@
         <v>2022</v>
       </c>
       <c r="C1173" s="1" t="n">
-        <v>44844</v>
+        <v>44858</v>
       </c>
       <c r="D1173" t="s">
         <v>8</v>
@@ -27375,7 +27375,7 @@
         <v>1</v>
       </c>
       <c r="F1173" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="G1173" t="n">
         <v>0</v>
@@ -27389,7 +27389,7 @@
         <v>2022</v>
       </c>
       <c r="C1174" s="1" t="n">
-        <v>44851</v>
+        <v>44865</v>
       </c>
       <c r="D1174" t="s">
         <v>8</v>
@@ -27398,7 +27398,7 @@
         <v>1</v>
       </c>
       <c r="F1174" t="n">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="G1174" t="n">
         <v>0</v>
@@ -27412,7 +27412,7 @@
         <v>2022</v>
       </c>
       <c r="C1175" s="1" t="n">
-        <v>44858</v>
+        <v>44872</v>
       </c>
       <c r="D1175" t="s">
         <v>8</v>
@@ -27421,7 +27421,7 @@
         <v>1</v>
       </c>
       <c r="F1175" t="n">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="G1175" t="n">
         <v>0</v>
@@ -27435,7 +27435,7 @@
         <v>2022</v>
       </c>
       <c r="C1176" s="1" t="n">
-        <v>44865</v>
+        <v>44879</v>
       </c>
       <c r="D1176" t="s">
         <v>8</v>
@@ -27444,7 +27444,7 @@
         <v>1</v>
       </c>
       <c r="F1176" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G1176" t="n">
         <v>0</v>
@@ -27458,7 +27458,7 @@
         <v>2022</v>
       </c>
       <c r="C1177" s="1" t="n">
-        <v>44872</v>
+        <v>44886</v>
       </c>
       <c r="D1177" t="s">
         <v>8</v>
@@ -27467,55 +27467,9 @@
         <v>1</v>
       </c>
       <c r="F1177" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G1177" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1178">
-      <c r="A1178" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1178" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C1178" s="1" t="n">
-        <v>44879</v>
-      </c>
-      <c r="D1178" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1178" t="n">
-        <v>1</v>
-      </c>
-      <c r="F1178" t="n">
-        <v>60</v>
-      </c>
-      <c r="G1178" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1179">
-      <c r="A1179" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1179" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C1179" s="1" t="n">
-        <v>44886</v>
-      </c>
-      <c r="D1179" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1179" t="n">
-        <v>1</v>
-      </c>
-      <c r="F1179" t="n">
-        <v>1</v>
-      </c>
-      <c r="G1179" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/clean/historical_clean_data.xlsx
+++ b/data/clean/historical_clean_data.xlsx
@@ -4651,7 +4651,7 @@
         <v>1</v>
       </c>
       <c r="F131" t="n">
-        <v>142</v>
+        <v>186</v>
       </c>
       <c r="G131" t="n">
         <v>0</v>
@@ -4683,7 +4683,7 @@
         <v>1</v>
       </c>
       <c r="F132" t="n">
-        <v>3052</v>
+        <v>0</v>
       </c>
       <c r="G132" t="n">
         <v>0</v>
@@ -4715,7 +4715,7 @@
         <v>1</v>
       </c>
       <c r="F133" t="n">
-        <v>11046</v>
+        <v>404</v>
       </c>
       <c r="G133" t="n">
         <v>65</v>
@@ -4747,7 +4747,7 @@
         <v>1</v>
       </c>
       <c r="F134" t="n">
-        <v>14539</v>
+        <v>1205</v>
       </c>
       <c r="G134" t="n">
         <v>88</v>
@@ -4779,7 +4779,7 @@
         <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>18083</v>
+        <v>1425</v>
       </c>
       <c r="G135" t="n">
         <v>101</v>
@@ -4811,7 +4811,7 @@
         <v>1</v>
       </c>
       <c r="F136" t="n">
-        <v>20684</v>
+        <v>1435</v>
       </c>
       <c r="G136" t="n">
         <v>83</v>
@@ -4843,7 +4843,7 @@
         <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>21628</v>
+        <v>1189</v>
       </c>
       <c r="G137" t="n">
         <v>78</v>
@@ -4875,7 +4875,7 @@
         <v>1</v>
       </c>
       <c r="F138" t="n">
-        <v>21268</v>
+        <v>1216</v>
       </c>
       <c r="G138" t="n">
         <v>89</v>
@@ -4907,7 +4907,7 @@
         <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>18722</v>
+        <v>767</v>
       </c>
       <c r="G139" t="n">
         <v>69</v>
@@ -4939,7 +4939,7 @@
         <v>1</v>
       </c>
       <c r="F140" t="n">
-        <v>16477</v>
+        <v>744</v>
       </c>
       <c r="G140" t="n">
         <v>41</v>
@@ -4971,7 +4971,7 @@
         <v>1</v>
       </c>
       <c r="F141" t="n">
-        <v>13870</v>
+        <v>459</v>
       </c>
       <c r="G141" t="n">
         <v>28</v>
@@ -5003,7 +5003,7 @@
         <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>10820</v>
+        <v>341</v>
       </c>
       <c r="G142" t="n">
         <v>24</v>
@@ -5035,7 +5035,7 @@
         <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>7657</v>
+        <v>266</v>
       </c>
       <c r="G143" t="n">
         <v>6</v>
@@ -5067,7 +5067,7 @@
         <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>6078</v>
+        <v>271</v>
       </c>
       <c r="G144" t="n">
         <v>16</v>
@@ -5099,7 +5099,7 @@
         <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>4825</v>
+        <v>159</v>
       </c>
       <c r="G145" t="n">
         <v>11</v>
@@ -5131,7 +5131,7 @@
         <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>3921</v>
+        <v>180</v>
       </c>
       <c r="G146" t="n">
         <v>7</v>
@@ -5163,7 +5163,7 @@
         <v>1</v>
       </c>
       <c r="F147" t="n">
-        <v>3550</v>
+        <v>169</v>
       </c>
       <c r="G147" t="n">
         <v>9</v>
@@ -5195,7 +5195,7 @@
         <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>3368</v>
+        <v>181</v>
       </c>
       <c r="G148" t="n">
         <v>8</v>
@@ -5227,7 +5227,7 @@
         <v>1</v>
       </c>
       <c r="F149" t="n">
-        <v>2717</v>
+        <v>177</v>
       </c>
       <c r="G149" t="n">
         <v>12</v>
@@ -5259,7 +5259,7 @@
         <v>1</v>
       </c>
       <c r="F150" t="n">
-        <v>2230</v>
+        <v>112</v>
       </c>
       <c r="G150" t="n">
         <v>11</v>
@@ -5291,7 +5291,7 @@
         <v>1</v>
       </c>
       <c r="F151" t="n">
-        <v>1910</v>
+        <v>99</v>
       </c>
       <c r="G151" t="n">
         <v>11</v>
@@ -5323,7 +5323,7 @@
         <v>1</v>
       </c>
       <c r="F152" t="n">
-        <v>1712</v>
+        <v>102</v>
       </c>
       <c r="G152" t="n">
         <v>4</v>
@@ -5355,7 +5355,7 @@
         <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>1747</v>
+        <v>102</v>
       </c>
       <c r="G153" t="n">
         <v>8</v>
@@ -5387,7 +5387,7 @@
         <v>1</v>
       </c>
       <c r="F154" t="n">
-        <v>1765</v>
+        <v>93</v>
       </c>
       <c r="G154" t="n">
         <v>10</v>
@@ -5419,7 +5419,7 @@
         <v>1</v>
       </c>
       <c r="F155" t="n">
-        <v>1867</v>
+        <v>119</v>
       </c>
       <c r="G155" t="n">
         <v>9</v>
@@ -5451,7 +5451,7 @@
         <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>2295</v>
+        <v>163</v>
       </c>
       <c r="G156" t="n">
         <v>21</v>
@@ -5483,7 +5483,7 @@
         <v>1</v>
       </c>
       <c r="F157" t="n">
-        <v>3237</v>
+        <v>256</v>
       </c>
       <c r="G157" t="n">
         <v>29</v>
@@ -5515,7 +5515,7 @@
         <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>4354</v>
+        <v>398</v>
       </c>
       <c r="G158" t="n">
         <v>45</v>
@@ -5547,7 +5547,7 @@
         <v>1</v>
       </c>
       <c r="F159" t="n">
-        <v>5639</v>
+        <v>489</v>
       </c>
       <c r="G159" t="n">
         <v>48</v>
@@ -5579,7 +5579,7 @@
         <v>1</v>
       </c>
       <c r="F160" t="n">
-        <v>6670</v>
+        <v>448</v>
       </c>
       <c r="G160" t="n">
         <v>48</v>
@@ -5611,7 +5611,7 @@
         <v>1</v>
       </c>
       <c r="F161" t="n">
-        <v>7447</v>
+        <v>531</v>
       </c>
       <c r="G161" t="n">
         <v>38</v>
@@ -5643,7 +5643,7 @@
         <v>1</v>
       </c>
       <c r="F162" t="n">
-        <v>8362</v>
+        <v>497</v>
       </c>
       <c r="G162" t="n">
         <v>33</v>
@@ -5675,7 +5675,7 @@
         <v>1</v>
       </c>
       <c r="F163" t="n">
-        <v>9686</v>
+        <v>713</v>
       </c>
       <c r="G163" t="n">
         <v>43</v>
@@ -5707,7 +5707,7 @@
         <v>1</v>
       </c>
       <c r="F164" t="n">
-        <v>11980</v>
+        <v>970</v>
       </c>
       <c r="G164" t="n">
         <v>85</v>
@@ -5739,7 +5739,7 @@
         <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>14042</v>
+        <v>1193</v>
       </c>
       <c r="G165" t="n">
         <v>91</v>
@@ -5771,7 +5771,7 @@
         <v>1</v>
       </c>
       <c r="F166" t="n">
-        <v>16843</v>
+        <v>1270</v>
       </c>
       <c r="G166" t="n">
         <v>120</v>
@@ -5803,7 +5803,7 @@
         <v>1</v>
       </c>
       <c r="F167" t="n">
-        <v>20351</v>
+        <v>1382</v>
       </c>
       <c r="G167" t="n">
         <v>150</v>
@@ -5835,7 +5835,7 @@
         <v>1</v>
       </c>
       <c r="F168" t="n">
-        <v>22518</v>
+        <v>1416</v>
       </c>
       <c r="G168" t="n">
         <v>133</v>
@@ -5867,7 +5867,7 @@
         <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>24474</v>
+        <v>1676</v>
       </c>
       <c r="G169" t="n">
         <v>137</v>
@@ -5899,7 +5899,7 @@
         <v>1</v>
       </c>
       <c r="F170" t="n">
-        <v>25502</v>
+        <v>1603</v>
       </c>
       <c r="G170" t="n">
         <v>113</v>
@@ -5931,7 +5931,7 @@
         <v>1</v>
       </c>
       <c r="F171" t="n">
-        <v>29872</v>
+        <v>1881</v>
       </c>
       <c r="G171" t="n">
         <v>134</v>
@@ -5963,7 +5963,7 @@
         <v>1</v>
       </c>
       <c r="F172" t="n">
-        <v>32787</v>
+        <v>2149</v>
       </c>
       <c r="G172" t="n">
         <v>151</v>
@@ -5995,7 +5995,7 @@
         <v>1</v>
       </c>
       <c r="F173" t="n">
-        <v>33925</v>
+        <v>2033</v>
       </c>
       <c r="G173" t="n">
         <v>157</v>
@@ -6027,7 +6027,7 @@
         <v>1</v>
       </c>
       <c r="F174" t="n">
-        <v>31377</v>
+        <v>1753</v>
       </c>
       <c r="G174" t="n">
         <v>139</v>
@@ -6059,7 +6059,7 @@
         <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>27335</v>
+        <v>1408</v>
       </c>
       <c r="G175" t="n">
         <v>106</v>
@@ -6091,7 +6091,7 @@
         <v>1</v>
       </c>
       <c r="F176" t="n">
-        <v>23277</v>
+        <v>1263</v>
       </c>
       <c r="G176" t="n">
         <v>76</v>
@@ -6123,7 +6123,7 @@
         <v>1</v>
       </c>
       <c r="F177" t="n">
-        <v>19367</v>
+        <v>913</v>
       </c>
       <c r="G177" t="n">
         <v>71</v>
@@ -6155,7 +6155,7 @@
         <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>17132</v>
+        <v>909</v>
       </c>
       <c r="G178" t="n">
         <v>86</v>
@@ -6187,7 +6187,7 @@
         <v>1</v>
       </c>
       <c r="F179" t="n">
-        <v>15868</v>
+        <v>906</v>
       </c>
       <c r="G179" t="n">
         <v>93</v>
@@ -6219,7 +6219,7 @@
         <v>1</v>
       </c>
       <c r="F180" t="n">
-        <v>14936</v>
+        <v>908</v>
       </c>
       <c r="G180" t="n">
         <v>84</v>
@@ -6251,7 +6251,7 @@
         <v>1</v>
       </c>
       <c r="F181" t="n">
-        <v>14874</v>
+        <v>1164</v>
       </c>
       <c r="G181" t="n">
         <v>69</v>
@@ -6283,7 +6283,7 @@
         <v>1</v>
       </c>
       <c r="F182" t="n">
-        <v>15702</v>
+        <v>1099</v>
       </c>
       <c r="G182" t="n">
         <v>102</v>
@@ -6315,7 +6315,7 @@
         <v>1</v>
       </c>
       <c r="F183" t="n">
-        <v>17322</v>
+        <v>1229</v>
       </c>
       <c r="G183" t="n">
         <v>84</v>
@@ -6347,7 +6347,7 @@
         <v>1</v>
       </c>
       <c r="F184" t="n">
-        <v>19344</v>
+        <v>1456</v>
       </c>
       <c r="G184" t="n">
         <v>107</v>
@@ -6379,7 +6379,7 @@
         <v>1</v>
       </c>
       <c r="F185" t="n">
-        <v>23281</v>
+        <v>2047</v>
       </c>
       <c r="G185" t="n">
         <v>167</v>
@@ -6411,7 +6411,7 @@
         <v>1</v>
       </c>
       <c r="F186" t="n">
-        <v>28512</v>
+        <v>2454</v>
       </c>
       <c r="G186" t="n">
         <v>183</v>
@@ -6443,7 +6443,7 @@
         <v>1</v>
       </c>
       <c r="F187" t="n">
-        <v>31465</v>
+        <v>2439</v>
       </c>
       <c r="G187" t="n">
         <v>161</v>
@@ -6475,7 +6475,7 @@
         <v>1</v>
       </c>
       <c r="F188" t="n">
-        <v>31032</v>
+        <v>2279</v>
       </c>
       <c r="G188" t="n">
         <v>134</v>
@@ -6507,7 +6507,7 @@
         <v>1</v>
       </c>
       <c r="F189" t="n">
-        <v>28659</v>
+        <v>1973</v>
       </c>
       <c r="G189" t="n">
         <v>128</v>
@@ -6539,7 +6539,7 @@
         <v>1</v>
       </c>
       <c r="F190" t="n">
-        <v>26359</v>
+        <v>1508</v>
       </c>
       <c r="G190" t="n">
         <v>112</v>
@@ -6571,7 +6571,7 @@
         <v>1</v>
       </c>
       <c r="F191" t="n">
-        <v>23242</v>
+        <v>1379</v>
       </c>
       <c r="G191" t="n">
         <v>88</v>
@@ -6603,7 +6603,7 @@
         <v>1</v>
       </c>
       <c r="F192" t="n">
-        <v>19541</v>
+        <v>1082</v>
       </c>
       <c r="G192" t="n">
         <v>124</v>
@@ -6635,7 +6635,7 @@
         <v>1</v>
       </c>
       <c r="F193" t="n">
-        <v>15121</v>
+        <v>824</v>
       </c>
       <c r="G193" t="n">
         <v>70</v>
@@ -6667,7 +6667,7 @@
         <v>1</v>
       </c>
       <c r="F194" t="n">
-        <v>12041</v>
+        <v>704</v>
       </c>
       <c r="G194" t="n">
         <v>70</v>
@@ -6699,7 +6699,7 @@
         <v>1</v>
       </c>
       <c r="F195" t="n">
-        <v>9491</v>
+        <v>548</v>
       </c>
       <c r="G195" t="n">
         <v>58</v>
@@ -6731,7 +6731,7 @@
         <v>1</v>
       </c>
       <c r="F196" t="n">
-        <v>7479</v>
+        <v>425</v>
       </c>
       <c r="G196" t="n">
         <v>41</v>
@@ -6763,7 +6763,7 @@
         <v>1</v>
       </c>
       <c r="F197" t="n">
-        <v>6118</v>
+        <v>387</v>
       </c>
       <c r="G197" t="n">
         <v>30</v>
@@ -6795,7 +6795,7 @@
         <v>1</v>
       </c>
       <c r="F198" t="n">
-        <v>5209</v>
+        <v>348</v>
       </c>
       <c r="G198" t="n">
         <v>21</v>
@@ -6827,7 +6827,7 @@
         <v>1</v>
       </c>
       <c r="F199" t="n">
-        <v>4417</v>
+        <v>317</v>
       </c>
       <c r="G199" t="n">
         <v>26</v>
@@ -6859,7 +6859,7 @@
         <v>1</v>
       </c>
       <c r="F200" t="n">
-        <v>3814</v>
+        <v>298</v>
       </c>
       <c r="G200" t="n">
         <v>24</v>
@@ -6891,7 +6891,7 @@
         <v>1</v>
       </c>
       <c r="F201" t="n">
-        <v>3447</v>
+        <v>306</v>
       </c>
       <c r="G201" t="n">
         <v>20</v>
@@ -6923,7 +6923,7 @@
         <v>1</v>
       </c>
       <c r="F202" t="n">
-        <v>3605</v>
+        <v>371</v>
       </c>
       <c r="G202" t="n">
         <v>28</v>
@@ -6955,7 +6955,7 @@
         <v>1</v>
       </c>
       <c r="F203" t="n">
-        <v>4251</v>
+        <v>484</v>
       </c>
       <c r="G203" t="n">
         <v>57</v>
@@ -6987,7 +6987,7 @@
         <v>1</v>
       </c>
       <c r="F204" t="n">
-        <v>5553</v>
+        <v>523</v>
       </c>
       <c r="G204" t="n">
         <v>52</v>
@@ -7019,7 +7019,7 @@
         <v>1</v>
       </c>
       <c r="F205" t="n">
-        <v>7769</v>
+        <v>640</v>
       </c>
       <c r="G205" t="n">
         <v>75</v>
@@ -7051,7 +7051,7 @@
         <v>1</v>
       </c>
       <c r="F206" t="n">
-        <v>10003</v>
+        <v>875</v>
       </c>
       <c r="G206" t="n">
         <v>125</v>
@@ -7083,7 +7083,7 @@
         <v>1</v>
       </c>
       <c r="F207" t="n">
-        <v>12391</v>
+        <v>865</v>
       </c>
       <c r="G207" t="n">
         <v>117</v>
@@ -7115,7 +7115,7 @@
         <v>1</v>
       </c>
       <c r="F208" t="n">
-        <v>14244</v>
+        <v>766</v>
       </c>
       <c r="G208" t="n">
         <v>124</v>
@@ -7147,7 +7147,7 @@
         <v>1</v>
       </c>
       <c r="F209" t="n">
-        <v>16013</v>
+        <v>852</v>
       </c>
       <c r="G209" t="n">
         <v>116</v>
@@ -7179,7 +7179,7 @@
         <v>1</v>
       </c>
       <c r="F210" t="n">
-        <v>16357</v>
+        <v>819</v>
       </c>
       <c r="G210" t="n">
         <v>96</v>
@@ -7211,7 +7211,7 @@
         <v>1</v>
       </c>
       <c r="F211" t="n">
-        <v>17799</v>
+        <v>1009</v>
       </c>
       <c r="G211" t="n">
         <v>98</v>
@@ -7243,7 +7243,7 @@
         <v>1</v>
       </c>
       <c r="F212" t="n">
-        <v>17312</v>
+        <v>853</v>
       </c>
       <c r="G212" t="n">
         <v>94</v>
@@ -7275,7 +7275,7 @@
         <v>1</v>
       </c>
       <c r="F213" t="n">
-        <v>16158</v>
+        <v>817</v>
       </c>
       <c r="G213" t="n">
         <v>100</v>
@@ -7307,7 +7307,7 @@
         <v>1</v>
       </c>
       <c r="F214" t="n">
-        <v>14525</v>
+        <v>781</v>
       </c>
       <c r="G214" t="n">
         <v>124</v>
@@ -7339,7 +7339,7 @@
         <v>1</v>
       </c>
       <c r="F215" t="n">
-        <v>13734</v>
+        <v>779</v>
       </c>
       <c r="G215" t="n">
         <v>91</v>
@@ -7371,7 +7371,7 @@
         <v>1</v>
       </c>
       <c r="F216" t="n">
-        <v>12707</v>
+        <v>748</v>
       </c>
       <c r="G216" t="n">
         <v>85</v>
@@ -7403,7 +7403,7 @@
         <v>1</v>
       </c>
       <c r="F217" t="n">
-        <v>12141</v>
+        <v>750</v>
       </c>
       <c r="G217" t="n">
         <v>80</v>
@@ -7435,7 +7435,7 @@
         <v>1</v>
       </c>
       <c r="F218" t="n">
-        <v>11407</v>
+        <v>727</v>
       </c>
       <c r="G218" t="n">
         <v>77</v>
@@ -7467,7 +7467,7 @@
         <v>1</v>
       </c>
       <c r="F219" t="n">
-        <v>11150</v>
+        <v>668</v>
       </c>
       <c r="G219" t="n">
         <v>71</v>
@@ -7499,7 +7499,7 @@
         <v>1</v>
       </c>
       <c r="F220" t="n">
-        <v>10771</v>
+        <v>768</v>
       </c>
       <c r="G220" t="n">
         <v>99</v>
@@ -7531,7 +7531,7 @@
         <v>1</v>
       </c>
       <c r="F221" t="n">
-        <v>10969</v>
+        <v>926</v>
       </c>
       <c r="G221" t="n">
         <v>109</v>
@@ -7563,7 +7563,7 @@
         <v>1</v>
       </c>
       <c r="F222" t="n">
-        <v>12865</v>
+        <v>1420</v>
       </c>
       <c r="G222" t="n">
         <v>111</v>
@@ -7595,7 +7595,7 @@
         <v>1</v>
       </c>
       <c r="F223" t="n">
-        <v>22883</v>
+        <v>3246</v>
       </c>
       <c r="G223" t="n">
         <v>204</v>
@@ -7627,7 +7627,7 @@
         <v>1</v>
       </c>
       <c r="F224" t="n">
-        <v>43365</v>
+        <v>5605</v>
       </c>
       <c r="G224" t="n">
         <v>258</v>
@@ -7659,7 +7659,7 @@
         <v>1</v>
       </c>
       <c r="F225" t="n">
-        <v>64826</v>
+        <v>6861</v>
       </c>
       <c r="G225" t="n">
         <v>302</v>
@@ -7691,7 +7691,7 @@
         <v>1</v>
       </c>
       <c r="F226" t="n">
-        <v>74799</v>
+        <v>6024</v>
       </c>
       <c r="G226" t="n">
         <v>311</v>
@@ -7723,7 +7723,7 @@
         <v>1</v>
       </c>
       <c r="F227" t="n">
-        <v>72708</v>
+        <v>4967</v>
       </c>
       <c r="G227" t="n">
         <v>255</v>
@@ -7755,7 +7755,7 @@
         <v>1</v>
       </c>
       <c r="F228" t="n">
-        <v>64225</v>
+        <v>4025</v>
       </c>
       <c r="G228" t="n">
         <v>230</v>
@@ -7787,7 +7787,7 @@
         <v>1</v>
       </c>
       <c r="F229" t="n">
-        <v>54763</v>
+        <v>3197</v>
       </c>
       <c r="G229" t="n">
         <v>185</v>
@@ -7819,7 +7819,7 @@
         <v>1</v>
       </c>
       <c r="F230" t="n">
-        <v>46199</v>
+        <v>2589</v>
       </c>
       <c r="G230" t="n">
         <v>142</v>
@@ -7851,7 +7851,7 @@
         <v>1</v>
       </c>
       <c r="F231" t="n">
-        <v>39732</v>
+        <v>2129</v>
       </c>
       <c r="G231" t="n">
         <v>119</v>
@@ -7883,7 +7883,7 @@
         <v>1</v>
       </c>
       <c r="F232" t="n">
-        <v>33946</v>
+        <v>1919</v>
       </c>
       <c r="G232" t="n">
         <v>99</v>
@@ -7915,7 +7915,7 @@
         <v>1</v>
       </c>
       <c r="F233" t="n">
-        <v>30653</v>
+        <v>1663</v>
       </c>
       <c r="G233" t="n">
         <v>58</v>
@@ -7947,7 +7947,7 @@
         <v>1</v>
       </c>
       <c r="F234" t="n">
-        <v>28015</v>
+        <v>1720</v>
       </c>
       <c r="G234" t="n">
         <v>68</v>
@@ -7979,7 +7979,7 @@
         <v>1</v>
       </c>
       <c r="F235" t="n">
-        <v>28471</v>
+        <v>2147</v>
       </c>
       <c r="G235" t="n">
         <v>92</v>
@@ -8011,7 +8011,7 @@
         <v>1</v>
       </c>
       <c r="F236" t="n">
-        <v>31740</v>
+        <v>2751</v>
       </c>
       <c r="G236" t="n">
         <v>123</v>
@@ -8043,7 +8043,7 @@
         <v>1</v>
       </c>
       <c r="F237" t="n">
-        <v>38238</v>
+        <v>3400</v>
       </c>
       <c r="G237" t="n">
         <v>112</v>
@@ -8075,7 +8075,7 @@
         <v>1</v>
       </c>
       <c r="F238" t="n">
-        <v>44983</v>
+        <v>3816</v>
       </c>
       <c r="G238" t="n">
         <v>162</v>
@@ -8107,7 +8107,7 @@
         <v>1</v>
       </c>
       <c r="F239" t="n">
-        <v>49469</v>
+        <v>3714</v>
       </c>
       <c r="G239" t="n">
         <v>142</v>
@@ -8139,7 +8139,7 @@
         <v>1</v>
       </c>
       <c r="F240" t="n">
-        <v>49913</v>
+        <v>3513</v>
       </c>
       <c r="G240" t="n">
         <v>155</v>
@@ -8171,7 +8171,7 @@
         <v>1</v>
       </c>
       <c r="F241" t="n">
-        <v>47878</v>
+        <v>2989</v>
       </c>
       <c r="G241" t="n">
         <v>100</v>
@@ -8203,7 +8203,7 @@
         <v>1</v>
       </c>
       <c r="F242" t="n">
-        <v>43133</v>
+        <v>2588</v>
       </c>
       <c r="G242" t="n">
         <v>101</v>
@@ -8235,7 +8235,7 @@
         <v>1</v>
       </c>
       <c r="F243" t="n">
-        <v>37882</v>
+        <v>2183</v>
       </c>
       <c r="G243" t="n">
         <v>101</v>
@@ -8267,7 +8267,7 @@
         <v>1</v>
       </c>
       <c r="F244" t="n">
-        <v>33107</v>
+        <v>1731</v>
       </c>
       <c r="G244" t="n">
         <v>60</v>
@@ -8299,7 +8299,7 @@
         <v>1</v>
       </c>
       <c r="F245" t="n">
-        <v>28006</v>
+        <v>1503</v>
       </c>
       <c r="G245" t="n">
         <v>54</v>
@@ -8331,7 +8331,7 @@
         <v>1</v>
       </c>
       <c r="F246" t="n">
-        <v>24833</v>
+        <v>1515</v>
       </c>
       <c r="G246" t="n">
         <v>69</v>
@@ -8363,7 +8363,7 @@
         <v>1</v>
       </c>
       <c r="F247" t="n">
-        <v>22872</v>
+        <v>1438</v>
       </c>
       <c r="G247" t="n">
         <v>53</v>
@@ -8395,7 +8395,7 @@
         <v>1</v>
       </c>
       <c r="F248" t="n">
-        <v>22651</v>
+        <v>1638</v>
       </c>
       <c r="G248" t="n">
         <v>77</v>
@@ -8427,7 +8427,7 @@
         <v>1</v>
       </c>
       <c r="F249" t="n">
-        <v>23599</v>
+        <v>1854</v>
       </c>
       <c r="G249" t="n">
         <v>56</v>
@@ -8459,7 +8459,7 @@
         <v>1</v>
       </c>
       <c r="F250" t="n">
-        <v>26738</v>
+        <v>2472</v>
       </c>
       <c r="G250" t="n">
         <v>88</v>
@@ -8491,7 +8491,7 @@
         <v>1</v>
       </c>
       <c r="F251" t="n">
-        <v>31411</v>
+        <v>2865</v>
       </c>
       <c r="G251" t="n">
         <v>86</v>
@@ -8523,7 +8523,7 @@
         <v>1</v>
       </c>
       <c r="F252" t="n">
-        <v>35936</v>
+        <v>3240</v>
       </c>
       <c r="G252" t="n">
         <v>105</v>
@@ -8555,7 +8555,7 @@
         <v>1</v>
       </c>
       <c r="F253" t="n">
-        <v>37695</v>
+        <v>3026</v>
       </c>
       <c r="G253" t="n">
         <v>119</v>
@@ -8587,7 +8587,7 @@
         <v>1</v>
       </c>
       <c r="F254" t="n">
-        <v>37206</v>
+        <v>2709</v>
       </c>
       <c r="G254" t="n">
         <v>84</v>
@@ -8619,7 +8619,7 @@
         <v>1</v>
       </c>
       <c r="F255" t="n">
-        <v>36450</v>
+        <v>2462</v>
       </c>
       <c r="G255" t="n">
         <v>113</v>
@@ -8651,7 +8651,7 @@
         <v>1</v>
       </c>
       <c r="F256" t="n">
-        <v>36619</v>
+        <v>2474</v>
       </c>
       <c r="G256" t="n">
         <v>109</v>
@@ -8683,7 +8683,7 @@
         <v>1</v>
       </c>
       <c r="F257" t="n">
-        <v>36543</v>
+        <v>2602</v>
       </c>
       <c r="G257" t="n">
         <v>108</v>
@@ -8715,7 +8715,7 @@
         <v>1</v>
       </c>
       <c r="F258" t="n">
-        <v>34532</v>
+        <v>2513</v>
       </c>
       <c r="G258" t="n">
         <v>101</v>
@@ -8747,7 +8747,7 @@
         <v>1</v>
       </c>
       <c r="F259" t="n">
-        <v>33033</v>
+        <v>1913</v>
       </c>
       <c r="G259" t="n">
         <v>97</v>
@@ -8779,7 +8779,7 @@
         <v>1</v>
       </c>
       <c r="F260" t="n">
-        <v>32308</v>
+        <v>1977</v>
       </c>
       <c r="G260" t="n">
         <v>129</v>
@@ -8811,7 +8811,7 @@
         <v>1</v>
       </c>
       <c r="F261" t="n">
-        <v>32826</v>
+        <v>2316</v>
       </c>
       <c r="G261" t="n">
         <v>117</v>
@@ -8843,7 +8843,7 @@
         <v>1</v>
       </c>
       <c r="F262" t="n">
-        <v>35393</v>
+        <v>2351</v>
       </c>
       <c r="G262" t="n">
         <v>78</v>
@@ -8875,7 +8875,7 @@
         <v>1</v>
       </c>
       <c r="F263" t="n">
-        <v>37776</v>
+        <v>2513</v>
       </c>
       <c r="G263" t="n">
         <v>68</v>
@@ -8907,7 +8907,7 @@
         <v>1</v>
       </c>
       <c r="F264" t="n">
-        <v>41859</v>
+        <v>2887</v>
       </c>
       <c r="G264" t="n">
         <v>84</v>
@@ -8939,7 +8939,7 @@
         <v>1</v>
       </c>
       <c r="F265" t="n">
-        <v>44082</v>
+        <v>3078</v>
       </c>
       <c r="G265" t="n">
         <v>79</v>
@@ -8971,7 +8971,7 @@
         <v>1</v>
       </c>
       <c r="F266" t="n">
-        <v>44406</v>
+        <v>2590</v>
       </c>
       <c r="G266" t="n">
         <v>94</v>
@@ -9003,7 +9003,7 @@
         <v>1</v>
       </c>
       <c r="F267" t="n">
-        <v>43321</v>
+        <v>2851</v>
       </c>
       <c r="G267" t="n">
         <v>104</v>
@@ -9035,7 +9035,7 @@
         <v>1</v>
       </c>
       <c r="F268" t="n">
-        <v>41084</v>
+        <v>2619</v>
       </c>
       <c r="G268" t="n">
         <v>129</v>
@@ -9067,7 +9067,7 @@
         <v>1</v>
       </c>
       <c r="F269" t="n">
-        <v>17048</v>
+        <v>1379</v>
       </c>
       <c r="G269" t="n">
         <v>62</v>
@@ -18219,10 +18219,10 @@
         <v>1</v>
       </c>
       <c r="F555" t="n">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="G555" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H555" t="s">
         <v>23</v>
